--- a/data/해외주식포함_관련주식정보_top100.xlsx
+++ b/data/해외주식포함_관련주식정보_top100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="189">
   <si>
     <t>뉴스 제목</t>
   </si>
@@ -31,6 +31,156 @@
     <t>전일대비 등락가격</t>
   </si>
   <si>
+    <t>배터리, 전기차 선택 기준으로 우뚝… 中 CATL, 오프라인 매장 출격</t>
+  </si>
+  <si>
+    <t>'난카이 대지진' 걱정되지만…"일본 여행 예정대로 갑니다"</t>
+  </si>
+  <si>
+    <t>101살 낡은 회사 아니다… "'원 디즈니' 빅테크 협업 마다 않아"</t>
+  </si>
+  <si>
+    <t>남중국해 영유권 분쟁 두고 필리핀 ‘정면승부’vs 베트남 ‘로키접근’</t>
+  </si>
+  <si>
+    <t>금리 인하 놓고 갑론을박 Fed…시장 빅컷 전망도 50% 하회</t>
+  </si>
+  <si>
+    <t>젤렌스키 "전쟁, 침략자 영토로 밀어내고 있다"… 러 본토 공격 공식화</t>
+  </si>
+  <si>
+    <t>[인터뷰]"재편되는 글로벌 공급망…韓·印 손 굳게 맞잡을 때"</t>
+  </si>
+  <si>
+    <t>걸그룹에 시부야 랜드마크까지…갤럭시 폴더블 일본 '러브콜'</t>
+  </si>
+  <si>
+    <t>정부, 이틀 연속 '전기차 화재' 긴급회의 열고 대응책 고심</t>
+  </si>
+  <si>
+    <t>"메달을 두고 내리기도"...우버, 올림픽 기간 파리 시내 운행 데이터 공개</t>
+  </si>
+  <si>
+    <t>삼성전자 바오패밀리 갤럭시 체험존, 누적 15만명</t>
+  </si>
+  <si>
+    <t>블룸버그 "애플, 스마트 글라스 전념…출시 시기는 미지수"</t>
+  </si>
+  <si>
+    <t>오늘 밤부터 새벽까지 ‘별똥별 우주쇼’</t>
+  </si>
+  <si>
+    <t>네이버·다음 안 쓴다고?…이제 어디에서 검색하나 봤더니</t>
+  </si>
+  <si>
+    <t>엔씨소프트, 해외법인 자회사 리더십 개편</t>
+  </si>
+  <si>
+    <t>[단독] 택시도 '구독'시대…월 4900원에 쿠폰주는 카카오T | 팩플</t>
+  </si>
+  <si>
+    <t>엔씨소프트, 해외 법인 리더십 개편</t>
+  </si>
+  <si>
+    <t>대구가톨릭대 SW중심대학사업단, SW·AI활용 관련 현직 교사 연수 '성료'</t>
+  </si>
+  <si>
+    <t>"비전프로·스마트 글라스…애플, 둘다 잡고 간다"</t>
+  </si>
+  <si>
+    <t>8월 엔지니어상에 김태성 수석연구원·박진용 대표 선정</t>
+  </si>
+  <si>
+    <t>韓 보안리더, 세계 최고해킹대회 '데프콘 CTF' 3연패</t>
+  </si>
+  <si>
+    <t>"애플, 스마트 글라스 여전히 전념…출시 시기는 미지수"</t>
+  </si>
+  <si>
+    <t>셀트리온, 키트루다 바이오시밀러 美 임상 3상 승인</t>
+  </si>
+  <si>
+    <t>반도체서 바이오로 주도주 변화…제약·바이오 상한가 랠리[바이오맥짚기]</t>
+  </si>
+  <si>
+    <t>오늘 밤 3대 별똥별 ‘페르세우스 유성우’ 쏟아진다…“11시30분 절정”</t>
+  </si>
+  <si>
+    <t>엔씨, 해외 자회사 수장 인사 전격 단행…윤송이·김택헌 사업서 손 뗀다</t>
+  </si>
+  <si>
+    <t>우체국쇼핑, 19일부터 추석맞이…"전국 13만개 상품 둘러보세요"</t>
+  </si>
+  <si>
+    <t>한여름 페르세우스 유성우 쏟아진다…"오늘 밤 11시30분 극대기"</t>
+  </si>
+  <si>
+    <t>[1분건강] 코로나19와 냉방병이 헷갈린다면 필독</t>
+  </si>
+  <si>
+    <t>“과방위, 과학과 방송 분리해야”...최수진, 국회법 개정안 발의</t>
+  </si>
+  <si>
+    <t>방통위 갈등에…국회 과학·방송 상임위 분리 법안 발의</t>
+  </si>
+  <si>
+    <t>페르세우스 유성우 12일 밤∼13일 새벽 쏟아진다</t>
+  </si>
+  <si>
+    <t>노조 설립 3개월째 상견례 못한 넷마블 노사…"성실 교섭 촉구"</t>
+  </si>
+  <si>
+    <t>티몬·위메프 법원에 자구안 제출…실효성 있나</t>
+  </si>
+  <si>
+    <t>방통위 이진숙·김태규, 14일 방송장악 청문회 출석</t>
+  </si>
+  <si>
+    <t>AI반도체, ‘28년 전체 반도체에서 20.4%…KISDI “시스템 SW 전략화 필요"</t>
+  </si>
+  <si>
+    <t>김태성 LS전선 수석연구원·박진용 진용엔지니어링 대표이사 이달 ‘대한민국 엔지니어상’ 수상</t>
+  </si>
+  <si>
+    <t>삼성전자, CMP 공정에도 '플라즈마' 적용 추진</t>
+  </si>
+  <si>
+    <t>엔씨 아메리카 대표에 진정희 前 펄어비스 아메리카 대표…"글로벌 경쟁력 강화"</t>
+  </si>
+  <si>
+    <t>바닷물 속 이산화탄소가 연료로...CO₂-알코올 전환기술 개발</t>
+  </si>
+  <si>
+    <t>8월 대한민국 엔지니어상에 김태성·박진용</t>
+  </si>
+  <si>
+    <t>에버랜드 바오패밀리 갤럭시 체험존, 15만명이 찾았다</t>
+  </si>
+  <si>
+    <t>과일·채소 많이 먹어야 심장·신장 건강 지킨다 [달콤한 사이언스]</t>
+  </si>
+  <si>
+    <t>고팍스, 전북은행과 실명계좌 재계약</t>
+  </si>
+  <si>
+    <t>'위기의 엔씨' 해외법인 자회사 리더십 개편..."성장 동력 마련"</t>
+  </si>
+  <si>
+    <t>엔씨소프트, 엔씨아메리카 등 해외법인 대표 교체...윤송이·김택헌 직책 내려놔</t>
+  </si>
+  <si>
+    <t>무선 인프라 없이 미아·치매노인 위치 찾는 GPS 시스템 나왔다</t>
+  </si>
+  <si>
+    <t>韓 차세대 보안 리더, 세계 최고 해킹 대회 3연패 달성</t>
+  </si>
+  <si>
+    <t>8월 엔지니어상에 LS전선 김태성·진용엔지니어링 박진용</t>
+  </si>
+  <si>
+    <t>日 점유율 잡기…삼성폰, 갤럭시Z6 조기등판 승부수</t>
+  </si>
+  <si>
     <t>엔씨소프트, 해외법인 인사…윤송이·김택헌 손 떼</t>
   </si>
   <si>
@@ -181,39 +331,94 @@
     <t>삼성전자 ‘갤럭시Z6’ 중고보상 프로그램 10만명 참여</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>마이크로소프트</t>
+  </si>
+  <si>
+    <t>NA 
+뉴스 내용과 관련성이 있는 주식 종목명은 없습니다  남중국해 영유권 분쟁에 대한 정치 및 군사적 상황을 다루고 있으며 상업적으로 거래되는 주식 종목과 직접적인 관련성이 드러나지 않습니다</t>
+  </si>
+  <si>
+    <t>NA 
+  주의사항
+ 뉴스 기사 내용만으로 주식 종목을 추론하는 것은 매우 위험합니다 
+ 투자 결정은 전문가의 조언 및 신중한 분석 후에 내려야 합니다 
+ 저는 AI 모델로서 금융적 조언을 제공할 수 없습니다</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
+    <t>벤츠</t>
+  </si>
+  <si>
+    <t>우버 테크놀로지스</t>
+  </si>
+  <si>
+    <t>애플</t>
+  </si>
+  <si>
+    <t>알파벳 Class A</t>
+  </si>
+  <si>
     <t>엔씨소프트</t>
   </si>
   <si>
-    <t>삼성전자</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>애플</t>
+    <t>카카오모빌리티</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>셀트리온</t>
+  </si>
+  <si>
+    <t>블루엠텍</t>
+  </si>
+  <si>
+    <t>방통위</t>
+  </si>
+  <si>
+    <t>네이버   
+뉴스와 주식 종목 사이의 시장적 연관성을 평가하는 것은 흥미로운 질문입니다 그러나 인공 지능 모델로서 저는 실시간 정보에 접근할 수 없으며 특정 사건과 주식 가격 변동 사이의 직접적인 연결을 파악하려면 추가적인 분석과 데이터가 필요합니다</t>
+  </si>
+  <si>
+    <t>엔비디아</t>
+  </si>
+  <si>
+    <t>고팍스</t>
+  </si>
+  <si>
+    <t>티오리</t>
   </si>
   <si>
     <t>인스웨이브시스템즈</t>
   </si>
   <si>
-    <t>LS</t>
-  </si>
-  <si>
     <t>한국화학연구원</t>
   </si>
   <si>
+    <t>NA 
+뉴스 내용으로 주식 시장에 직접 영향을 미치는 명확한 종목이 확인되지 않습니다  화학 연구 개발 분야 관련 기업들이 일반적으로 오름차순의 변동을 보일 수 있지만 뉴스에서 언급된 개발 기술과 특정 종목에 대한 직결성은 찾기 어렵습니다</t>
+  </si>
+  <si>
     <t>에이스토리</t>
   </si>
   <si>
     <t>NA 
- 뉴스와 직접적인 관련이 있는 주식종목은 없습니다  
-유비소프트 등 천체영업이나 관측 장비 제조사로 추론되는 업계와 유사하게 관련 있는 정보가 있습니다  물론 이러한 종목들의 가치 변동에 직접적인 영향을 미칠 가능성은 낮지만 뉴스에서 언급된 내용과 어느 정도 간접적인 연관이 있을 수 있습니다</t>
+뉴스의 내용은 천문 현상 특히 페르세우스 유성우에 대한 설명으로 주식 종목과 직접적인 관련이 없습니다</t>
+  </si>
+  <si>
+    <t>컬러 스타 테크놀로지</t>
   </si>
   <si>
     <t>펄어비스</t>
   </si>
   <si>
-    <t>보B</t>
+    <t>보스 
+추락된 부분에 대한 설명 뉴스 기사에서는 BoB 수료생과 멘토로 구성된 MMM팀이 세계 최고 해킹 대회에서 3연패를 달성했다고 언급하며  그 중 하나가 ROS라는 정보는 주어진 글속에 찾을 수 없다</t>
   </si>
   <si>
     <t>네트마블</t>
@@ -222,28 +427,60 @@
     <t>티머니</t>
   </si>
   <si>
-    <t>NAVER</t>
+    <t>네이버블로그</t>
   </si>
   <si>
     <t>우리은행</t>
   </si>
   <si>
-    <t>컬러 스타 테크놀로지</t>
+    <t>NA 
+뉴스 내용은 천문 현상인 페르세우스 유성우와 관련되어 있고  주식 시장과 직접적인 연관성을 찾기 어렵습니다</t>
   </si>
   <si>
     <t>메디톡스</t>
   </si>
   <si>
-    <t>질병관리청</t>
+    <t>NA 
+ 뉴스 기사에는 해킹 및 보안 기술 관련 기업에 대한 언급은 없고 MMM 은 국내 화이트해커 팀의 이름으로 주식종목과 직접적인 연관성이 없습니다  따라서 관련 주식 종목을 추천할 수 없습니다</t>
+  </si>
+  <si>
+    <t>CATL</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>FEYE</t>
+  </si>
+  <si>
+    <t>005930</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
   </si>
   <si>
     <t>036570</t>
   </si>
   <si>
-    <t>005930</t>
-  </si>
-  <si>
-    <t>AAPL</t>
+    <t>006260</t>
+  </si>
+  <si>
+    <t>068270</t>
+  </si>
+  <si>
+    <t>439580</t>
+  </si>
+  <si>
+    <t>KCCW</t>
+  </si>
+  <si>
+    <t>NVDA</t>
   </si>
   <si>
     <t>450520</t>
@@ -252,88 +489,109 @@
     <t>KRICT</t>
   </si>
   <si>
-    <t>006260</t>
-  </si>
-  <si>
     <t>XRP</t>
   </si>
   <si>
     <t>241840</t>
   </si>
   <si>
-    <t>KAIST</t>
+    <t>ADD</t>
   </si>
   <si>
     <t>263750</t>
   </si>
   <si>
-    <t>035420</t>
-  </si>
-  <si>
-    <t>ADD</t>
+    <t>MVRDV</t>
   </si>
   <si>
     <t>086900</t>
   </si>
   <si>
+    <t>417.14</t>
+  </si>
+  <si>
+    <t>74,300</t>
+  </si>
+  <si>
+    <t>73.13</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>163.38</t>
+  </si>
+  <si>
     <t>187,600</t>
   </si>
   <si>
-    <t>74,300</t>
-  </si>
-  <si>
-    <t>229.00</t>
+    <t>113,100</t>
+  </si>
+  <si>
+    <t>203,000</t>
+  </si>
+  <si>
+    <t>21,600</t>
+  </si>
+  <si>
+    <t>119.37</t>
   </si>
   <si>
     <t>3,830</t>
   </si>
   <si>
-    <t>113,100</t>
-  </si>
-  <si>
     <t>7,110</t>
   </si>
   <si>
+    <t>0.62</t>
+  </si>
+  <si>
     <t>34,000</t>
   </si>
   <si>
-    <t>169,100</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
     <t>198,100</t>
   </si>
   <si>
+    <t>4.02</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>-0.79</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
     <t>-4,200</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>-0.79</t>
+    <t>4,900</t>
+  </si>
+  <si>
+    <t>4,000</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>1.78</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>4,900</t>
-  </si>
-  <si>
     <t>80</t>
   </si>
   <si>
+    <t>-0.01</t>
+  </si>
+  <si>
     <t>250</t>
-  </si>
-  <si>
-    <t>4,200</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>4,000</t>
   </si>
 </sst>
 </file>
@@ -691,7 +949,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -719,16 +977,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -736,16 +994,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -753,16 +1011,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -770,16 +1028,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -787,16 +1045,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -804,16 +1062,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -821,16 +1079,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -838,16 +1096,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -855,16 +1113,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -872,16 +1130,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -889,16 +1147,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -906,16 +1164,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -923,16 +1181,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -940,16 +1198,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -957,16 +1215,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -974,16 +1232,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -991,16 +1249,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1008,16 +1266,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1025,16 +1283,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1042,16 +1300,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1059,16 +1317,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1076,16 +1334,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1093,16 +1351,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1110,16 +1368,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1127,16 +1385,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1144,16 +1402,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1161,16 +1419,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1178,16 +1436,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1195,16 +1453,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1212,16 +1470,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1229,16 +1487,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1246,16 +1504,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1263,16 +1521,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1280,16 +1538,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1297,16 +1555,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1314,16 +1572,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1331,16 +1589,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1348,16 +1606,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1365,16 +1623,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1382,16 +1640,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1399,16 +1657,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1416,16 +1674,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1433,16 +1691,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1450,16 +1708,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1467,16 +1725,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1484,16 +1742,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1501,16 +1759,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1518,16 +1776,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1535,16 +1793,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1552,16 +1810,866 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" t="s">
+        <v>165</v>
+      </c>
+      <c r="E58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" t="s">
+        <v>166</v>
+      </c>
+      <c r="E62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" t="s">
+        <v>172</v>
+      </c>
+      <c r="E69" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="D51" t="s">
+      <c r="B71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" t="s">
+        <v>170</v>
+      </c>
+      <c r="E73" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" t="s">
+        <v>146</v>
+      </c>
+      <c r="D79" t="s">
+        <v>165</v>
+      </c>
+      <c r="E79" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" t="s">
+        <v>105</v>
+      </c>
+      <c r="D80" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" t="s">
+        <v>105</v>
+      </c>
+      <c r="E83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
         <v>87</v>
       </c>
-      <c r="E51" t="s">
+      <c r="B84" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" t="s">
+        <v>152</v>
+      </c>
+      <c r="D84" t="s">
+        <v>170</v>
+      </c>
+      <c r="E84" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" t="s">
+        <v>147</v>
+      </c>
+      <c r="D85" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" t="s">
+        <v>142</v>
+      </c>
+      <c r="D86" t="s">
+        <v>161</v>
+      </c>
+      <c r="E86" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87" t="s">
+        <v>172</v>
+      </c>
+      <c r="E87" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" t="s">
+        <v>105</v>
+      </c>
+      <c r="D88" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s">
+        <v>136</v>
+      </c>
+      <c r="C89" t="s">
+        <v>105</v>
+      </c>
+      <c r="D89" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" t="s">
+        <v>158</v>
+      </c>
+      <c r="D90" t="s">
+        <v>105</v>
+      </c>
+      <c r="E90" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" t="s">
+        <v>105</v>
+      </c>
+      <c r="E91" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" t="s">
+        <v>159</v>
+      </c>
+      <c r="D92" t="s">
+        <v>174</v>
+      </c>
+      <c r="E92" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" t="s">
+        <v>142</v>
+      </c>
+      <c r="D93" t="s">
+        <v>161</v>
+      </c>
+      <c r="E93" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
         <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" t="s">
+        <v>142</v>
+      </c>
+      <c r="D94" t="s">
+        <v>161</v>
+      </c>
+      <c r="E94" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" t="s">
+        <v>144</v>
+      </c>
+      <c r="D95" t="s">
+        <v>163</v>
+      </c>
+      <c r="E95" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" t="s">
+        <v>105</v>
+      </c>
+      <c r="D96" t="s">
+        <v>105</v>
+      </c>
+      <c r="E96" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" t="s">
+        <v>105</v>
+      </c>
+      <c r="D97" t="s">
+        <v>105</v>
+      </c>
+      <c r="E97" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" t="s">
+        <v>105</v>
+      </c>
+      <c r="E98" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" t="s">
+        <v>142</v>
+      </c>
+      <c r="D99" t="s">
+        <v>161</v>
+      </c>
+      <c r="E99" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" t="s">
+        <v>147</v>
+      </c>
+      <c r="D100" t="s">
+        <v>166</v>
+      </c>
+      <c r="E100" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" t="s">
+        <v>142</v>
+      </c>
+      <c r="D101" t="s">
+        <v>161</v>
+      </c>
+      <c r="E101" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
